--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_7_35.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_7_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3267267.880005882</v>
+        <v>3264695.925487976</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283182</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>295.9408816142891</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>166.1581093081849</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>139.8939792152981</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,10 +826,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>55.84003136202637</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -859,19 +859,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>133.5262229738434</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>319.4121462068567</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1105,22 +1105,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>161.1486436253825</v>
       </c>
       <c r="V7" t="n">
-        <v>223.1498336210772</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,13 +1133,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>5.983388191318943</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1148,7 +1148,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481174</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>316.5747219976522</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229333</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586834</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>234.4970761400737</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1430,10 +1430,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174137</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784684</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>108.2950343703276</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>39.52129633183122</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,16 +1768,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>26.05480806223585</v>
       </c>
       <c r="G16" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,19 +2002,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>239.7247859410136</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>20.43112068613158</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788180381</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>42.71572132711287</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856552</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>108.9065924712593</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2615,7 +2615,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>73.9322284908373</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,13 +2953,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>115.7063133373732</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3193,19 +3193,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>122.6028762599955</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>110.0177171766861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>90.85912858529821</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>6.434538210426389</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,25 +4135,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>110.0177171766861</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>42.71572132711237</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1348.719328075852</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="C2" t="n">
-        <v>979.7568111354399</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="D2" t="n">
-        <v>621.4911125286894</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E2" t="n">
-        <v>235.7028599304452</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2443.387305656314</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2112.324418312743</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2112.324418312743</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1738.858660051663</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>1348.719328075852</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="3">
@@ -4398,40 +4398,40 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>279.346854164887</v>
+        <v>195.2500315327868</v>
       </c>
       <c r="C4" t="n">
-        <v>279.346854164887</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>279.346854164887</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>279.346854164887</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>195.2500315327868</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>195.2500315327868</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>195.2500315327868</v>
       </c>
       <c r="X4" t="n">
-        <v>500.1394333084171</v>
+        <v>195.2500315327868</v>
       </c>
       <c r="Y4" t="n">
-        <v>279.346854164887</v>
+        <v>195.2500315327868</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4541,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>940.9219833362301</v>
+        <v>983.0286321745434</v>
       </c>
       <c r="C5" t="n">
-        <v>940.9219833362301</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="D5" t="n">
-        <v>940.9219833362301</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="E5" t="n">
-        <v>940.9219833362301</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F5" t="n">
-        <v>933.9764825870267</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>516.0126744852136</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>188.8179545212164</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733118</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224067</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280442</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
         <v>1836.345445977174</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548715</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548715</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V5" t="n">
-        <v>2057.295728843236</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W5" t="n">
-        <v>1704.527073573122</v>
+        <v>1695.806495672433</v>
       </c>
       <c r="X5" t="n">
-        <v>1331.061315312042</v>
+        <v>1373.167964150355</v>
       </c>
       <c r="Y5" t="n">
-        <v>940.9219833362301</v>
+        <v>983.0286321745434</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4650,43 +4650,43 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517452</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4732,43 +4732,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064343</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064343</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V7" t="n">
-        <v>502.7251118619119</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>502.7251118619119</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>274.7355609638946</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>808.083928634017</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="C8" t="n">
-        <v>439.1214116936052</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="D8" t="n">
-        <v>80.85571308685473</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097701</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177354</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036444</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548715</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548715</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205144</v>
+        <v>1904.980192166102</v>
       </c>
       <c r="W8" t="n">
-        <v>1958.28885893503</v>
+        <v>1552.211536895988</v>
       </c>
       <c r="X8" t="n">
-        <v>1584.82310067395</v>
+        <v>1178.745778634908</v>
       </c>
       <c r="Y8" t="n">
-        <v>1194.683768698139</v>
+        <v>788.606446659096</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571346</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915165</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.81559303506</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658208</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064341</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064341</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064341</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064341</v>
+        <v>290.8087152951864</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064341</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064341</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064341</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064341</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5033,16 +5033,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5057,31 +5057,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191926</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349515</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061504</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.043492616111</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400721</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121652</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121652</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121652</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121652</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5273,31 +5273,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>139.234765840794</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245705</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121648</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121648</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121648</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
         <v>235.5284942057738</v>
@@ -5434,52 +5434,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5501,7 +5501,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>417.9651836029414</v>
       </c>
       <c r="L18" t="n">
-        <v>119.2902967703784</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969303</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>391.8463960427007</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D19" t="n">
-        <v>241.729756630365</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E19" t="n">
-        <v>93.81666304797187</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
         <v>93.81666304797187</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5726,46 +5726,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5783,19 +5783,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5829,28 +5829,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>139.234765840794</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191926</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L21" t="n">
-        <v>427.7414352191926</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969299</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951537</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5978,37 +5978,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362675</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6069,19 +6069,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>251.5626541092265</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>746.8882603249853</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O24" t="n">
-        <v>2319.799627685893</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P24" t="n">
         <v>2319.799627685893</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429802</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000582</v>
@@ -6169,28 +6169,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6218,16 +6218,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,16 +6236,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6263,10 +6263,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6303,22 +6303,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>397.4723325755821</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>250.5823850776717</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>250.5823850776717</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6443,46 +6443,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L30" t="n">
-        <v>352.5519571452613</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718132</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
         <v>261.0127623330919</v>
@@ -6619,52 +6619,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6689,19 +6689,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,16 +6710,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.793114229131</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468418</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6841,16 +6841,16 @@
         <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6926,28 +6926,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7023,19 +7023,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O36" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7093,52 +7093,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,19 +7160,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7181,40 +7181,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N39" t="n">
-        <v>2129.438138565707</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>642.8692823226941</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>824.5177471529338</v>
       </c>
     </row>
     <row r="41">
@@ -7400,19 +7400,19 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,16 +7421,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7488,22 +7488,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7567,52 +7567,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2190.563011941682</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1901.48778528588</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1646.803297079993</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="44">
@@ -7637,37 +7637,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192508</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075821</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7731,10 +7731,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637307</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,7 +8216,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711638</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8298,10 +8298,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516217</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270196</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8544,13 +8544,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783519</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.658803395179</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,7 +8690,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9401,7 +9401,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>-2.216893335571513e-12</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10358,7 +10358,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -11060,7 +11060,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>57.22910392194129</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>100.7734165143927</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>119.3662399606954</v>
       </c>
       <c r="G16" t="n">
-        <v>57.22910392194174</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>43.72409101823415</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>46.45968844823051</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>124.9899273367997</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.22910392194126</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24364,22 +24364,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>124.531099771515</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>72.11969353038532</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>66.36248435538658</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24841,13 +24841,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>110.0033420516639</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>119.4047645948076</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>45.44677382459312</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
     </row>
     <row r="41">
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>210.9709121168619</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>57.22910392194177</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>97.57899151911153</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312479</v>
+        <v>718411.5486312477</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312478</v>
+        <v>718411.5486312481</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312485</v>
+        <v>718411.5486312477</v>
       </c>
       <c r="E2" t="n">
+        <v>706253.2747287552</v>
+      </c>
+      <c r="F2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="G2" t="n">
+        <v>706253.2747287551</v>
+      </c>
+      <c r="H2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="I2" t="n">
+        <v>706253.2747287554</v>
+      </c>
+      <c r="J2" t="n">
+        <v>706253.2747287554</v>
+      </c>
+      <c r="K2" t="n">
         <v>706253.2747287556</v>
       </c>
-      <c r="F2" t="n">
+      <c r="L2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="M2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="N2" t="n">
         <v>706253.2747287552</v>
       </c>
-      <c r="G2" t="n">
+      <c r="O2" t="n">
+        <v>706253.274728755</v>
+      </c>
+      <c r="P2" t="n">
         <v>706253.2747287554</v>
-      </c>
-      <c r="H2" t="n">
-        <v>706253.2747287551</v>
-      </c>
-      <c r="I2" t="n">
-        <v>706253.2747287557</v>
-      </c>
-      <c r="J2" t="n">
-        <v>706253.2747287549</v>
-      </c>
-      <c r="K2" t="n">
-        <v>706253.2747287552</v>
-      </c>
-      <c r="L2" t="n">
-        <v>706253.2747287551</v>
-      </c>
-      <c r="M2" t="n">
-        <v>706253.2747287558</v>
-      </c>
-      <c r="N2" t="n">
-        <v>706253.2747287555</v>
-      </c>
-      <c r="O2" t="n">
-        <v>706253.2747287551</v>
-      </c>
-      <c r="P2" t="n">
-        <v>706253.2747287555</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>944372.7777577094</v>
+        <v>944372.7777577088</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,22 +26381,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925928</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.62584001373034e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080586</v>
+        <v>124208.5107080583</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,37 +26424,37 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>5067.592601670405</v>
+        <v>5067.592601670473</v>
       </c>
       <c r="F4" t="n">
-        <v>5067.592601670429</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="G4" t="n">
-        <v>5067.592601670451</v>
+        <v>5067.592601670443</v>
       </c>
       <c r="H4" t="n">
-        <v>5067.592601670405</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="I4" t="n">
         <v>5067.592601670437</v>
       </c>
       <c r="J4" t="n">
-        <v>5067.592601670442</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="K4" t="n">
-        <v>5067.592601670429</v>
+        <v>5067.59260167046</v>
       </c>
       <c r="L4" t="n">
-        <v>5067.59260167042</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="M4" t="n">
-        <v>5067.592601670422</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="N4" t="n">
-        <v>5067.592601670438</v>
+        <v>5067.592601670456</v>
       </c>
       <c r="O4" t="n">
-        <v>5067.59260167043</v>
+        <v>5067.592601670445</v>
       </c>
       <c r="P4" t="n">
         <v>5067.592601670437</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-155479.9145744376</v>
+        <v>-155479.9145744377</v>
       </c>
       <c r="C6" t="n">
-        <v>434487.9646401069</v>
+        <v>434487.9646401071</v>
       </c>
       <c r="D6" t="n">
-        <v>434487.9646401076</v>
+        <v>434487.9646401068</v>
       </c>
       <c r="E6" t="n">
-        <v>-344309.6254545313</v>
+        <v>-344344.3633799669</v>
       </c>
       <c r="F6" t="n">
-        <v>600063.1523031779</v>
+        <v>600028.4143777423</v>
       </c>
       <c r="G6" t="n">
-        <v>600063.1523031779</v>
+        <v>600028.414377742</v>
       </c>
       <c r="H6" t="n">
-        <v>600063.1523031774</v>
+        <v>600028.4143777423</v>
       </c>
       <c r="I6" t="n">
-        <v>600063.1523031782</v>
+        <v>600028.4143777421</v>
       </c>
       <c r="J6" t="n">
-        <v>423639.9331105843</v>
+        <v>423605.1951851493</v>
       </c>
       <c r="K6" t="n">
-        <v>600063.1523031777</v>
+        <v>600028.4143777424</v>
       </c>
       <c r="L6" t="n">
-        <v>600063.1523031776</v>
+        <v>600028.4143777422</v>
       </c>
       <c r="M6" t="n">
-        <v>475854.6415951197</v>
+        <v>475819.9036696838</v>
       </c>
       <c r="N6" t="n">
-        <v>600063.152303178</v>
+        <v>600028.414377742</v>
       </c>
       <c r="O6" t="n">
-        <v>600063.1523031776</v>
+        <v>600028.4143777419</v>
       </c>
       <c r="P6" t="n">
-        <v>600063.152303178</v>
+        <v>600028.4143777422</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26707,7 +26707,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="C3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="D3" t="n">
         <v>377.7436642170867</v>
-      </c>
-      <c r="C3" t="n">
-        <v>377.7436642170867</v>
-      </c>
-      <c r="D3" t="n">
-        <v>377.7436642170865</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,13 +26790,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26823,7 +26823,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26914,10 +26914,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>990.2318361245877</v>
+        <v>990.2318361245871</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,11 +26975,11 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
@@ -26987,7 +26987,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450931</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450931</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,10 +27151,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450931</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>58.74216000639382</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>240.7179364335265</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>27.35284188332972</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,10 +27546,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>89.58101666090488</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,19 +27579,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>18.40509327101782</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>50.3189544716123</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,31 +27816,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>125.1332306165952</v>
       </c>
       <c r="V7" t="n">
-        <v>28.98780970275081</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,13 +27853,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>375.9469818809428</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27868,7 +27868,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27898,19 +27898,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>11.1775364724827</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.105142606069</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853702</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491433</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,10 +28065,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>17.64056718375429</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28153,7 +28153,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>6.107776353646526e-13</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -29335,7 +29335,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890688</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813576</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>551.7051287319844</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>552.0015769888928</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>170.9292585737929</v>
       </c>
       <c r="K15" t="n">
-        <v>326.7634969305192</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>312.3207226334981</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>172.7144981745678</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422587</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>433.9798411722581</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437245</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32789,7 +32789,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>146.0225991093084</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473073</v>
@@ -32798,13 +32798,13 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>164.9290651940687</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
         <v>375.5996128485291</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,34 +33014,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>746.4857620875799</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>399.9031616963282</v>
+        <v>391.605194951448</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33497,16 +33497,16 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>579.5299594447131</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071786</v>
@@ -33521,7 +33521,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742439</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33737,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>302.967544750805</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>391.925066926462</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>229.6463482471742</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>624.2063432190395</v>
       </c>
       <c r="M42" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34451,34 +34451,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>233.9389431948329</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434341</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279155</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>325.1459203262123</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.392610473064</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,13 +35331,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
         <v>148.370846145888</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>409.1088842875399</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>418.0271695745625</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>44.09163190712619</v>
       </c>
       <c r="K15" t="n">
-        <v>188.9220579561602</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>174.4792836591391</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394599</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036775</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678997</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>291.8458072502398</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992801</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36437,7 +36437,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>8.181160134949373</v>
       </c>
       <c r="L24" t="n">
         <v>500.3288951674331</v>
@@ -36446,13 +36446,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>22.33282074962425</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625076</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>615.1440500042467</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>261.348781916454</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37078,7 +37078,7 @@
         <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
         <v>696.4886512243162</v>
@@ -37145,16 +37145,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>440.9755796648388</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238454</v>
@@ -37169,7 +37169,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,25 +37388,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>160.8335108287866</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>257.9506595121318</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902961</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>91.80490927281521</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>485.6519634391653</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,25 +38099,25 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>91.80490927281453</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
